--- a/fiis_thales_2022-12-10st.xlsx
+++ b/fiis_thales_2022-12-10st.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/09d289ae660a60a8/Documentos/Python/1. FII Scraper (Funcional)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="14_{1B18CEDE-C3B3-4072-8287-1B9FBC0EE7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{644C0FDC-1564-4177-B386-6BCFD067A0A3}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_4B1DCE3967ED4BC71792F4B9CCF13470FA08C5B2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F6D228B-F404-4C97-992F-04F25B93166E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2338" uniqueCount="927">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2339" uniqueCount="947">
   <si>
     <t>Ticker</t>
   </si>
@@ -1329,6 +1329,9 @@
     <t>IBFF11</t>
   </si>
   <si>
+    <t>Integral Brei</t>
+  </si>
+  <si>
     <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=314698</t>
   </si>
   <si>
@@ -2745,73 +2748,130 @@
     <t>FIAGRO</t>
   </si>
   <si>
+    <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=366785</t>
+  </si>
+  <si>
     <t>BBGO11</t>
   </si>
   <si>
+    <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=380517</t>
+  </si>
+  <si>
     <t>CCFA11</t>
   </si>
   <si>
     <t>CPTR11</t>
   </si>
   <si>
+    <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=381455</t>
+  </si>
+  <si>
     <t>DCRA11</t>
   </si>
   <si>
+    <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=380586</t>
+  </si>
+  <si>
     <t>EGAF11</t>
   </si>
   <si>
+    <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=382936</t>
+  </si>
+  <si>
     <t>FARM11</t>
   </si>
   <si>
     <t>FGAA11</t>
   </si>
   <si>
+    <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=375203</t>
+  </si>
+  <si>
     <t>FZDA11</t>
   </si>
   <si>
     <t>GCRA11</t>
   </si>
   <si>
+    <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=380537</t>
+  </si>
+  <si>
     <t>HGAG11</t>
   </si>
   <si>
     <t>JGPX11</t>
   </si>
   <si>
+    <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=373689</t>
+  </si>
+  <si>
     <t>KNCA11</t>
   </si>
   <si>
+    <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=386829</t>
+  </si>
+  <si>
     <t>LSAG11</t>
   </si>
   <si>
+    <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=386626</t>
+  </si>
+  <si>
     <t>MAVC11</t>
   </si>
   <si>
     <t>NCRA11</t>
   </si>
   <si>
+    <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=380937</t>
+  </si>
+  <si>
     <t>OIAG11</t>
   </si>
   <si>
+    <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=382406</t>
+  </si>
+  <si>
     <t>PLCA11</t>
   </si>
   <si>
+    <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=386800</t>
+  </si>
+  <si>
     <t>RURA11</t>
   </si>
   <si>
+    <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=374523</t>
+  </si>
+  <si>
     <t>RZAG11</t>
   </si>
   <si>
+    <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=375521</t>
+  </si>
+  <si>
     <t>SNAG11</t>
   </si>
   <si>
+    <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=380872</t>
+  </si>
+  <si>
     <t>VCRA11</t>
   </si>
   <si>
+    <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=386476</t>
+  </si>
+  <si>
     <t>VGIA11</t>
   </si>
   <si>
+    <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=381322</t>
+  </si>
+  <si>
     <t>XPCA11</t>
+  </si>
+  <si>
+    <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=382026</t>
   </si>
   <si>
     <t>Planilha FIIs</t>
@@ -4117,9 +4177,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF476"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A366" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A440" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I451" sqref="I451"/>
+      <selection pane="topRight" activeCell="J447" sqref="J447"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17907,7 +17967,9 @@
       <c r="C194" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D194" s="13"/>
+      <c r="D194" s="13" t="s">
+        <v>420</v>
+      </c>
       <c r="E194" s="16">
         <v>66.400000000000006</v>
       </c>
@@ -17960,12 +18022,12 @@
         <v>Link</v>
       </c>
       <c r="V194" s="38" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="195" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A195" s="12" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B195" s="12" t="s">
         <v>28</v>
@@ -18031,7 +18093,7 @@
     </row>
     <row r="196" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A196" s="12" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B196" s="12" t="s">
         <v>28</v>
@@ -18040,7 +18102,7 @@
         <v>36</v>
       </c>
       <c r="D196" s="13" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E196" s="16">
         <v>95.38</v>
@@ -18094,12 +18156,12 @@
         <v>Link</v>
       </c>
       <c r="V196" s="38" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="197" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A197" s="12" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B197" s="12" t="s">
         <v>28</v>
@@ -18108,7 +18170,7 @@
         <v>54</v>
       </c>
       <c r="D197" s="13" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E197" s="16">
         <v>96.8</v>
@@ -18162,12 +18224,12 @@
         <v>Link</v>
       </c>
       <c r="V197" s="38" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="198" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A198" s="12" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B198" s="12" t="s">
         <v>28</v>
@@ -18230,12 +18292,12 @@
         <v>Link</v>
       </c>
       <c r="V198" s="38" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="199" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A199" s="12" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B199" s="12" t="s">
         <v>28</v>
@@ -18298,12 +18360,12 @@
         <v>Link</v>
       </c>
       <c r="V199" s="38" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="200" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A200" s="12" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B200" s="12" t="s">
         <v>28</v>
@@ -18368,12 +18430,12 @@
         <v>Link</v>
       </c>
       <c r="V200" s="38" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="201" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A201" s="12" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B201" s="12" t="s">
         <v>28</v>
@@ -18439,7 +18501,7 @@
     </row>
     <row r="202" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A202" s="12" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B202" s="12" t="s">
         <v>28</v>
@@ -18505,7 +18567,7 @@
     </row>
     <row r="203" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A203" s="12" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B203" s="12" t="s">
         <v>28</v>
@@ -18571,7 +18633,7 @@
     </row>
     <row r="204" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A204" s="12" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B204" s="12" t="s">
         <v>28</v>
@@ -18580,7 +18642,7 @@
         <v>153</v>
       </c>
       <c r="D204" s="13" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E204" s="16">
         <v>63.49</v>
@@ -18642,12 +18704,12 @@
         <v>Link</v>
       </c>
       <c r="V204" s="38" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="205" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A205" s="12" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B205" s="12" t="s">
         <v>28</v>
@@ -18656,7 +18718,7 @@
         <v>54</v>
       </c>
       <c r="D205" s="13" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E205" s="16">
         <v>104.48</v>
@@ -18710,12 +18772,12 @@
         <v>Link</v>
       </c>
       <c r="V205" s="38" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="206" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A206" s="12" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B206" s="12" t="s">
         <v>28</v>
@@ -18724,7 +18786,7 @@
         <v>54</v>
       </c>
       <c r="D206" s="13" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E206" s="16">
         <v>146.01</v>
@@ -18778,12 +18840,12 @@
         <v>Link</v>
       </c>
       <c r="V206" s="38" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="207" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A207" s="12" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B207" s="12" t="s">
         <v>28</v>
@@ -18854,12 +18916,12 @@
         <v>Link</v>
       </c>
       <c r="V207" s="38" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="208" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A208" s="12" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B208" s="12" t="s">
         <v>28</v>
@@ -18920,12 +18982,12 @@
         <v>Link</v>
       </c>
       <c r="V208" s="38" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="209" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A209" s="12" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B209" s="12" t="s">
         <v>28</v>
@@ -18934,7 +18996,7 @@
         <v>54</v>
       </c>
       <c r="D209" s="13" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E209" s="16">
         <v>70.72</v>
@@ -18996,12 +19058,12 @@
         <v>Link</v>
       </c>
       <c r="V209" s="38" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="210" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A210" s="12" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B210" s="12" t="s">
         <v>28</v>
@@ -19010,7 +19072,7 @@
         <v>153</v>
       </c>
       <c r="D210" s="13" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E210" s="16">
         <v>2517</v>
@@ -19069,7 +19131,7 @@
     </row>
     <row r="211" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A211" s="12" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B211" s="12" t="s">
         <v>28</v>
@@ -19130,12 +19192,12 @@
         <v>Link</v>
       </c>
       <c r="V211" s="38" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="212" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A212" s="12" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B212" s="12" t="s">
         <v>28</v>
@@ -19144,7 +19206,7 @@
         <v>153</v>
       </c>
       <c r="D212" s="13" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E212" s="16">
         <v>1025.79</v>
@@ -19198,12 +19260,12 @@
         <v>Link</v>
       </c>
       <c r="V212" s="38" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="213" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A213" s="12" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B213" s="12" t="s">
         <v>28</v>
@@ -19212,7 +19274,7 @@
         <v>36</v>
       </c>
       <c r="D213" s="13" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E213" s="16">
         <v>80.510000000000005</v>
@@ -19266,12 +19328,12 @@
         <v>Link</v>
       </c>
       <c r="V213" s="38" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="214" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A214" s="12" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B214" s="12" t="s">
         <v>28</v>
@@ -19280,7 +19342,7 @@
         <v>153</v>
       </c>
       <c r="D214" s="13" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E214" s="16">
         <v>8.25</v>
@@ -19334,12 +19396,12 @@
         <v>Link</v>
       </c>
       <c r="V214" s="38" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="215" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A215" s="12" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B215" s="12" t="s">
         <v>28</v>
@@ -19348,7 +19410,7 @@
         <v>36</v>
       </c>
       <c r="D215" s="13" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E215" s="16">
         <v>8.1300000000000008</v>
@@ -19402,12 +19464,12 @@
         <v>Link</v>
       </c>
       <c r="V215" s="38" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="216" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A216" s="12" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B216" s="12" t="s">
         <v>28</v>
@@ -19468,12 +19530,12 @@
         <v>Link</v>
       </c>
       <c r="V216" s="38" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="217" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A217" s="12" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B217" s="12" t="s">
         <v>28</v>
@@ -19482,7 +19544,7 @@
         <v>36</v>
       </c>
       <c r="D217" s="13" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E217" s="16">
         <v>99.22</v>
@@ -19536,12 +19598,12 @@
         <v>Link</v>
       </c>
       <c r="V217" s="38" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="218" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A218" s="12" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B218" s="12" t="s">
         <v>28</v>
@@ -19550,7 +19612,7 @@
         <v>36</v>
       </c>
       <c r="D218" s="13" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E218" s="16">
         <v>98.67</v>
@@ -19604,12 +19666,12 @@
         <v>Link</v>
       </c>
       <c r="V218" s="38" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="219" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A219" s="12" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B219" s="12" t="s">
         <v>28</v>
@@ -19618,7 +19680,7 @@
         <v>36</v>
       </c>
       <c r="D219" s="13" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E219" s="16">
         <v>91.99</v>
@@ -19672,12 +19734,12 @@
         <v>Link</v>
       </c>
       <c r="V219" s="38" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="220" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A220" s="12" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B220" s="12" t="s">
         <v>28</v>
@@ -19743,7 +19805,7 @@
     </row>
     <row r="221" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A221" s="12" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B221" s="12" t="s">
         <v>28</v>
@@ -19752,7 +19814,7 @@
         <v>153</v>
       </c>
       <c r="D221" s="13" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E221" s="16">
         <v>0.5</v>
@@ -19806,12 +19868,12 @@
         <v>Link</v>
       </c>
       <c r="V221" s="38" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="222" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A222" s="12" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B222" s="12" t="s">
         <v>28</v>
@@ -19820,7 +19882,7 @@
         <v>54</v>
       </c>
       <c r="D222" s="13" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E222" s="16">
         <v>139.18</v>
@@ -19882,12 +19944,12 @@
         <v>Link</v>
       </c>
       <c r="V222" s="38" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="223" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A223" s="12" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B223" s="12" t="s">
         <v>28</v>
@@ -19896,7 +19958,7 @@
         <v>36</v>
       </c>
       <c r="D223" s="13" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E223" s="16">
         <v>86</v>
@@ -19950,12 +20012,12 @@
         <v>Link</v>
       </c>
       <c r="V223" s="38" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="224" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A224" s="12" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B224" s="12" t="s">
         <v>28</v>
@@ -19964,7 +20026,7 @@
         <v>29</v>
       </c>
       <c r="D224" s="13" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E224" s="16">
         <v>90.76</v>
@@ -20026,12 +20088,12 @@
         <v>Link</v>
       </c>
       <c r="V224" s="38" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="225" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A225" s="12" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B225" s="12" t="s">
         <v>28</v>
@@ -20040,7 +20102,7 @@
         <v>153</v>
       </c>
       <c r="D225" s="13" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E225" s="16">
         <v>10</v>
@@ -20099,7 +20161,7 @@
     </row>
     <row r="226" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A226" s="12" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B226" s="12" t="s">
         <v>28</v>
@@ -20165,7 +20227,7 @@
     </row>
     <row r="227" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A227" s="12" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B227" s="12" t="s">
         <v>28</v>
@@ -20241,7 +20303,7 @@
     </row>
     <row r="228" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A228" s="12" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B228" s="12" t="s">
         <v>28</v>
@@ -20312,12 +20374,12 @@
         <v>Link</v>
       </c>
       <c r="V228" s="38" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="229" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A229" s="12" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B229" s="12" t="s">
         <v>28</v>
@@ -20378,12 +20440,12 @@
         <v>Link</v>
       </c>
       <c r="V229" s="38" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="230" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A230" s="12" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B230" s="12" t="s">
         <v>28</v>
@@ -20449,7 +20511,7 @@
     </row>
     <row r="231" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A231" s="12" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B231" s="12" t="s">
         <v>28</v>
@@ -20515,7 +20577,7 @@
     </row>
     <row r="232" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A232" s="12" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B232" s="12" t="s">
         <v>28</v>
@@ -20587,7 +20649,7 @@
     </row>
     <row r="233" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A233" s="12" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B233" s="12" t="s">
         <v>28</v>
@@ -20653,7 +20715,7 @@
     </row>
     <row r="234" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A234" s="12" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B234" s="12" t="s">
         <v>28</v>
@@ -20719,7 +20781,7 @@
     </row>
     <row r="235" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A235" s="12" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B235" s="12" t="s">
         <v>28</v>
@@ -20785,7 +20847,7 @@
     </row>
     <row r="236" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A236" s="12" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B236" s="12" t="s">
         <v>28</v>
@@ -20856,12 +20918,12 @@
         <v>Link</v>
       </c>
       <c r="V236" s="38" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="237" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A237" s="12" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B237" s="12" t="s">
         <v>28</v>
@@ -20932,12 +20994,12 @@
         <v>Link</v>
       </c>
       <c r="V237" s="38" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="238" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A238" s="12" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B238" s="12" t="s">
         <v>28</v>
@@ -20999,7 +21061,7 @@
     </row>
     <row r="239" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A239" s="12" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B239" s="12" t="s">
         <v>28</v>
@@ -21008,7 +21070,7 @@
         <v>29</v>
       </c>
       <c r="D239" s="13" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E239" s="16">
         <v>103.76</v>
@@ -21070,12 +21132,12 @@
         <v>Link</v>
       </c>
       <c r="V239" s="38" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="240" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A240" s="12" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B240" s="12" t="s">
         <v>28</v>
@@ -21136,12 +21198,12 @@
         <v>Link</v>
       </c>
       <c r="V240" s="38" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="241" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A241" s="12" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B241" s="12" t="s">
         <v>28</v>
@@ -21202,12 +21264,12 @@
         <v>Link</v>
       </c>
       <c r="V241" s="38" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="242" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A242" s="12" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B242" s="12" t="s">
         <v>28</v>
@@ -21278,12 +21340,12 @@
         <v>Link</v>
       </c>
       <c r="V242" s="38" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="243" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A243" s="12" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B243" s="12" t="s">
         <v>28</v>
@@ -21292,7 +21354,7 @@
         <v>36</v>
       </c>
       <c r="D243" s="13" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E243" s="16">
         <v>95.29</v>
@@ -21346,12 +21408,12 @@
         <v>Link</v>
       </c>
       <c r="V243" s="38" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="244" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A244" s="12" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B244" s="12" t="s">
         <v>28</v>
@@ -21360,7 +21422,7 @@
         <v>36</v>
       </c>
       <c r="D244" s="13" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E244" s="16">
         <v>9.15</v>
@@ -21414,12 +21476,12 @@
         <v>Link</v>
       </c>
       <c r="V244" s="38" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="245" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A245" s="12" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B245" s="12" t="s">
         <v>28</v>
@@ -21480,12 +21542,12 @@
         <v>Link</v>
       </c>
       <c r="V245" s="38" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="246" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A246" s="12" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B246" s="12" t="s">
         <v>28</v>
@@ -21494,7 +21556,7 @@
         <v>54</v>
       </c>
       <c r="D246" s="13" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E246" s="16">
         <v>60.22</v>
@@ -21548,12 +21610,12 @@
         <v>Link</v>
       </c>
       <c r="V246" s="38" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="247" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A247" s="12" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B247" s="12" t="s">
         <v>28</v>
@@ -21614,12 +21676,12 @@
         <v>Link</v>
       </c>
       <c r="V247" s="38" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="248" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A248" s="12" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B248" s="12" t="s">
         <v>28</v>
@@ -21628,7 +21690,7 @@
         <v>54</v>
       </c>
       <c r="D248" s="13" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E248" s="16">
         <v>94.4</v>
@@ -21686,12 +21748,12 @@
         <v>Link</v>
       </c>
       <c r="V248" s="38" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="249" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A249" s="12" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B249" s="12" t="s">
         <v>28</v>
@@ -21700,7 +21762,7 @@
         <v>36</v>
       </c>
       <c r="D249" s="13" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E249" s="16">
         <v>83.39</v>
@@ -21754,12 +21816,12 @@
         <v>Link</v>
       </c>
       <c r="V249" s="38" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="250" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A250" s="12" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B250" s="12" t="s">
         <v>28</v>
@@ -21768,7 +21830,7 @@
         <v>36</v>
       </c>
       <c r="D250" s="13" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E250" s="16">
         <v>57.42</v>
@@ -21822,12 +21884,12 @@
         <v>Link</v>
       </c>
       <c r="V250" s="38" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="251" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A251" s="12" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B251" s="12" t="s">
         <v>28</v>
@@ -21836,7 +21898,7 @@
         <v>54</v>
       </c>
       <c r="D251" s="13" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E251" s="16">
         <v>55.33</v>
@@ -21898,12 +21960,12 @@
         <v>Link</v>
       </c>
       <c r="V251" s="38" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="252" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A252" s="12" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B252" s="12" t="s">
         <v>28</v>
@@ -21964,12 +22026,12 @@
         <v>Link</v>
       </c>
       <c r="V252" s="38" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="253" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A253" s="12" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B253" s="12" t="s">
         <v>28</v>
@@ -22031,7 +22093,7 @@
     </row>
     <row r="254" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A254" s="12" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B254" s="12" t="s">
         <v>28</v>
@@ -22040,7 +22102,7 @@
         <v>80</v>
       </c>
       <c r="D254" s="13" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E254" s="16">
         <v>39.54</v>
@@ -22094,12 +22156,12 @@
         <v>Link</v>
       </c>
       <c r="V254" s="38" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="255" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A255" s="12" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B255" s="12" t="s">
         <v>28</v>
@@ -22165,7 +22227,7 @@
     </row>
     <row r="256" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A256" s="12" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B256" s="12" t="s">
         <v>28</v>
@@ -22174,7 +22236,7 @@
         <v>33</v>
       </c>
       <c r="D256" s="13" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E256" s="16">
         <v>98.86</v>
@@ -22237,7 +22299,7 @@
     </row>
     <row r="257" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A257" s="12" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B257" s="12" t="s">
         <v>28</v>
@@ -22303,7 +22365,7 @@
     </row>
     <row r="258" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A258" s="12" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B258" s="12" t="s">
         <v>28</v>
@@ -22369,7 +22431,7 @@
     </row>
     <row r="259" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A259" s="12" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B259" s="12" t="s">
         <v>28</v>
@@ -22435,7 +22497,7 @@
     </row>
     <row r="260" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A260" s="12" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B260" s="12" t="s">
         <v>28</v>
@@ -22496,12 +22558,12 @@
         <v>Link</v>
       </c>
       <c r="V260" s="38" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="261" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A261" s="12" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B261" s="12" t="s">
         <v>28</v>
@@ -22510,7 +22572,7 @@
         <v>36</v>
       </c>
       <c r="D261" s="13" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E261" s="16">
         <v>66.67</v>
@@ -22564,12 +22626,12 @@
         <v>Link</v>
       </c>
       <c r="V261" s="38" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="262" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A262" s="12" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B262" s="12" t="s">
         <v>28</v>
@@ -22635,7 +22697,7 @@
     </row>
     <row r="263" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A263" s="12" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B263" s="12" t="s">
         <v>28</v>
@@ -22697,7 +22759,7 @@
     </row>
     <row r="264" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A264" s="12" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B264" s="12" t="s">
         <v>28</v>
@@ -22769,7 +22831,7 @@
     </row>
     <row r="265" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A265" s="12" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B265" s="12" t="s">
         <v>28</v>
@@ -22778,7 +22840,7 @@
         <v>54</v>
       </c>
       <c r="D265" s="13" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E265" s="16">
         <v>10</v>
@@ -22836,12 +22898,12 @@
         <v>Link</v>
       </c>
       <c r="V265" s="38" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="266" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A266" s="12" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B266" s="12" t="s">
         <v>28</v>
@@ -22850,7 +22912,7 @@
         <v>36</v>
       </c>
       <c r="D266" s="13" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E266" s="16">
         <v>75.86</v>
@@ -22904,12 +22966,12 @@
         <v>Link</v>
       </c>
       <c r="V266" s="38" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="267" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A267" s="12" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B267" s="12" t="s">
         <v>28</v>
@@ -22918,7 +22980,7 @@
         <v>36</v>
       </c>
       <c r="D267" s="13" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E267" s="16">
         <v>90.79</v>
@@ -22972,12 +23034,12 @@
         <v>Link</v>
       </c>
       <c r="V267" s="38" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="268" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A268" s="12" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B268" s="12" t="s">
         <v>28</v>
@@ -23043,7 +23105,7 @@
     </row>
     <row r="269" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A269" s="12" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B269" s="12" t="s">
         <v>28</v>
@@ -23052,7 +23114,7 @@
         <v>54</v>
       </c>
       <c r="D269" s="13" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E269" s="16">
         <v>92.35</v>
@@ -23114,12 +23176,12 @@
         <v>Link</v>
       </c>
       <c r="V269" s="38" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="270" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A270" s="12" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B270" s="12" t="s">
         <v>28</v>
@@ -23128,7 +23190,7 @@
         <v>54</v>
       </c>
       <c r="D270" s="13" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E270" s="16">
         <v>39.799999999999997</v>
@@ -23190,12 +23252,12 @@
         <v>Link</v>
       </c>
       <c r="V270" s="38" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="271" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A271" s="12" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B271" s="12" t="s">
         <v>28</v>
@@ -23204,7 +23266,7 @@
         <v>33</v>
       </c>
       <c r="D271" s="13" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E271" s="16">
         <v>12.82</v>
@@ -23263,7 +23325,7 @@
     </row>
     <row r="272" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A272" s="12" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B272" s="12" t="s">
         <v>28</v>
@@ -23334,12 +23396,12 @@
         <v>Link</v>
       </c>
       <c r="V272" s="38" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="273" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A273" s="12" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B273" s="12" t="s">
         <v>28</v>
@@ -23348,7 +23410,7 @@
         <v>358</v>
       </c>
       <c r="D273" s="13" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E273" s="16">
         <v>10.6</v>
@@ -23415,7 +23477,7 @@
     </row>
     <row r="274" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A274" s="12" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B274" s="12" t="s">
         <v>28</v>
@@ -23487,7 +23549,7 @@
     </row>
     <row r="275" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A275" s="12" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B275" s="12" t="s">
         <v>28</v>
@@ -23558,12 +23620,12 @@
         <v>Link</v>
       </c>
       <c r="V275" s="38" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="276" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A276" s="12" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B276" s="12" t="s">
         <v>28</v>
@@ -23626,12 +23688,12 @@
         <v>Link</v>
       </c>
       <c r="V276" s="38" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="277" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A277" s="12" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B277" s="12" t="s">
         <v>28</v>
@@ -23640,7 +23702,7 @@
         <v>36</v>
       </c>
       <c r="D277" s="13" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E277" s="16">
         <v>64.319999999999993</v>
@@ -23694,12 +23756,12 @@
         <v>Link</v>
       </c>
       <c r="V277" s="38" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="278" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A278" s="12" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B278" s="12" t="s">
         <v>28</v>
@@ -23708,7 +23770,7 @@
         <v>54</v>
       </c>
       <c r="D278" s="13" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E278" s="16">
         <v>95.4</v>
@@ -23762,12 +23824,12 @@
         <v>Link</v>
       </c>
       <c r="V278" s="38" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="279" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A279" s="12" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B279" s="12" t="s">
         <v>28</v>
@@ -23776,7 +23838,7 @@
         <v>80</v>
       </c>
       <c r="D279" s="13" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E279" s="16">
         <v>45.87</v>
@@ -23838,12 +23900,12 @@
         <v>Link</v>
       </c>
       <c r="V279" s="38" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="280" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A280" s="12" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B280" s="12" t="s">
         <v>28</v>
@@ -23852,7 +23914,7 @@
         <v>54</v>
       </c>
       <c r="D280" s="13" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E280" s="16">
         <v>81.2</v>
@@ -23914,12 +23976,12 @@
         <v>Link</v>
       </c>
       <c r="V280" s="38" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="281" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A281" s="12" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B281" s="12" t="s">
         <v>28</v>
@@ -23987,7 +24049,7 @@
     </row>
     <row r="282" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A282" s="12" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B282" s="12" t="s">
         <v>28</v>
@@ -24059,7 +24121,7 @@
     </row>
     <row r="283" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A283" s="12" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B283" s="12" t="s">
         <v>28</v>
@@ -24068,7 +24130,7 @@
         <v>42</v>
       </c>
       <c r="D283" s="13" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E283" s="16">
         <v>66.099999999999994</v>
@@ -24130,12 +24192,12 @@
         <v>Link</v>
       </c>
       <c r="V283" s="38" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="284" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A284" s="12" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B284" s="12" t="s">
         <v>28</v>
@@ -24144,7 +24206,7 @@
         <v>80</v>
       </c>
       <c r="D284" s="13" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E284" s="16">
         <v>73.55</v>
@@ -24206,12 +24268,12 @@
         <v>Link</v>
       </c>
       <c r="V284" s="38" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="285" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A285" s="12" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B285" s="12" t="s">
         <v>28</v>
@@ -24283,7 +24345,7 @@
     </row>
     <row r="286" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A286" s="12" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B286" s="12" t="s">
         <v>28</v>
@@ -24349,7 +24411,7 @@
     </row>
     <row r="287" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A287" s="12" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B287" s="12" t="s">
         <v>28</v>
@@ -24410,12 +24472,12 @@
         <v>Link</v>
       </c>
       <c r="V287" s="38" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="288" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A288" s="12" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B288" s="12" t="s">
         <v>28</v>
@@ -24478,12 +24540,12 @@
         <v>Link</v>
       </c>
       <c r="V288" s="38" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="289" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A289" s="12" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B289" s="12" t="s">
         <v>28</v>
@@ -24492,7 +24554,7 @@
         <v>80</v>
       </c>
       <c r="D289" s="13" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E289" s="16">
         <v>73.3</v>
@@ -24554,12 +24616,12 @@
         <v>Link</v>
       </c>
       <c r="V289" s="38" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="290" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A290" s="12" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B290" s="12" t="s">
         <v>28</v>
@@ -24627,7 +24689,7 @@
     </row>
     <row r="291" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A291" s="12" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B291" s="12" t="s">
         <v>28</v>
@@ -24693,7 +24755,7 @@
     </row>
     <row r="292" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A292" s="12" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B292" s="12" t="s">
         <v>28</v>
@@ -24759,7 +24821,7 @@
     </row>
     <row r="293" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A293" s="12" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B293" s="12" t="s">
         <v>28</v>
@@ -24825,7 +24887,7 @@
     </row>
     <row r="294" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A294" s="12" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B294" s="12" t="s">
         <v>28</v>
@@ -24888,12 +24950,12 @@
         <v>Link</v>
       </c>
       <c r="V294" s="38" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="295" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A295" s="12" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B295" s="12" t="s">
         <v>28</v>
@@ -24902,7 +24964,7 @@
         <v>80</v>
       </c>
       <c r="D295" s="13" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="E295" s="16">
         <v>53</v>
@@ -24964,12 +25026,12 @@
         <v>Link</v>
       </c>
       <c r="V295" s="38" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="296" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A296" s="12" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B296" s="12" t="s">
         <v>28</v>
@@ -25040,12 +25102,12 @@
         <v>Link</v>
       </c>
       <c r="V296" s="38" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="297" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A297" s="12" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B297" s="12" t="s">
         <v>28</v>
@@ -25054,7 +25116,7 @@
         <v>153</v>
       </c>
       <c r="D297" s="13" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E297" s="16">
         <v>2.3199999999999998</v>
@@ -25117,7 +25179,7 @@
     </row>
     <row r="298" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A298" s="12" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B298" s="12" t="s">
         <v>28</v>
@@ -25126,7 +25188,7 @@
         <v>42</v>
       </c>
       <c r="D298" s="13" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E298" s="16">
         <v>139.35</v>
@@ -25188,12 +25250,12 @@
         <v>Link</v>
       </c>
       <c r="V298" s="38" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="299" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A299" s="12" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B299" s="12" t="s">
         <v>28</v>
@@ -25261,7 +25323,7 @@
     </row>
     <row r="300" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A300" s="12" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B300" s="12" t="s">
         <v>28</v>
@@ -25327,7 +25389,7 @@
     </row>
     <row r="301" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A301" s="12" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B301" s="12" t="s">
         <v>28</v>
@@ -25398,12 +25460,12 @@
         <v>Link</v>
       </c>
       <c r="V301" s="38" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="302" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A302" s="12" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B302" s="12" t="s">
         <v>28</v>
@@ -25412,7 +25474,7 @@
         <v>33</v>
       </c>
       <c r="D302" s="13" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E302" s="16">
         <v>42.26</v>
@@ -25474,12 +25536,12 @@
         <v>Link</v>
       </c>
       <c r="V302" s="38" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="303" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A303" s="12" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B303" s="12" t="s">
         <v>28</v>
@@ -25488,7 +25550,7 @@
         <v>54</v>
       </c>
       <c r="D303" s="13" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E303" s="16">
         <v>82.29</v>
@@ -25542,12 +25604,12 @@
         <v>Link</v>
       </c>
       <c r="V303" s="38" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="304" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A304" s="12" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B304" s="12" t="s">
         <v>28</v>
@@ -25608,12 +25670,12 @@
         <v>Link</v>
       </c>
       <c r="V304" s="38" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="305" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A305" s="12" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B305" s="12" t="s">
         <v>28</v>
@@ -25676,12 +25738,12 @@
         <v>Link</v>
       </c>
       <c r="V305" s="38" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="306" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A306" s="12" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B306" s="12" t="s">
         <v>28</v>
@@ -25749,7 +25811,7 @@
     </row>
     <row r="307" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A307" s="12" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B307" s="12" t="s">
         <v>28</v>
@@ -25758,7 +25820,7 @@
         <v>153</v>
       </c>
       <c r="D307" s="13" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="E307" s="16">
         <v>2.76</v>
@@ -25812,12 +25874,12 @@
         <v>Link</v>
       </c>
       <c r="V307" s="38" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="308" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A308" s="12" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B308" s="12" t="s">
         <v>28</v>
@@ -25893,7 +25955,7 @@
     </row>
     <row r="309" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A309" s="12" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B309" s="12" t="s">
         <v>28</v>
@@ -25956,12 +26018,12 @@
         <v>Link</v>
       </c>
       <c r="V309" s="38" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="310" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A310" s="12" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B310" s="12" t="s">
         <v>28</v>
@@ -25970,7 +26032,7 @@
         <v>29</v>
       </c>
       <c r="D310" s="13" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="E310" s="16">
         <v>28.45</v>
@@ -26032,12 +26094,12 @@
         <v>Link</v>
       </c>
       <c r="V310" s="38" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="311" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A311" s="12" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B311" s="12" t="s">
         <v>28</v>
@@ -26100,12 +26162,12 @@
         <v>Link</v>
       </c>
       <c r="V311" s="38" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="312" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A312" s="12" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B312" s="12" t="s">
         <v>28</v>
@@ -26168,12 +26230,12 @@
         <v>Link</v>
       </c>
       <c r="V312" s="38" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="313" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A313" s="12" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B313" s="12" t="s">
         <v>28</v>
@@ -26182,7 +26244,7 @@
         <v>153</v>
       </c>
       <c r="D313" s="13" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="E313" s="16">
         <v>64.89</v>
@@ -26236,12 +26298,12 @@
         <v>Link</v>
       </c>
       <c r="V313" s="38" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="314" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A314" s="12" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B314" s="12" t="s">
         <v>28</v>
@@ -26250,7 +26312,7 @@
         <v>80</v>
       </c>
       <c r="D314" s="13" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="E314" s="16">
         <v>95.9</v>
@@ -26312,12 +26374,12 @@
         <v>Link</v>
       </c>
       <c r="V314" s="38" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="315" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A315" s="12" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B315" s="12" t="s">
         <v>28</v>
@@ -26382,12 +26444,12 @@
         <v>Link</v>
       </c>
       <c r="V315" s="38" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="316" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A316" s="12" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B316" s="12" t="s">
         <v>28</v>
@@ -26396,7 +26458,7 @@
         <v>54</v>
       </c>
       <c r="D316" s="13" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="E316" s="16">
         <v>36</v>
@@ -26458,12 +26520,12 @@
         <v>Link</v>
       </c>
       <c r="V316" s="38" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="317" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A317" s="12" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B317" s="12" t="s">
         <v>28</v>
@@ -26472,7 +26534,7 @@
         <v>36</v>
       </c>
       <c r="D317" s="13" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E317" s="16">
         <v>70.94</v>
@@ -26526,12 +26588,12 @@
         <v>Link</v>
       </c>
       <c r="V317" s="38" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="318" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A318" s="12" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B318" s="12" t="s">
         <v>28</v>
@@ -26597,7 +26659,7 @@
     </row>
     <row r="319" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A319" s="12" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B319" s="12" t="s">
         <v>28</v>
@@ -26606,7 +26668,7 @@
         <v>80</v>
       </c>
       <c r="D319" s="13" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E319" s="16">
         <v>84.32</v>
@@ -26668,12 +26730,12 @@
         <v>Link</v>
       </c>
       <c r="V319" s="38" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="320" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A320" s="12" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B320" s="12" t="s">
         <v>28</v>
@@ -26682,7 +26744,7 @@
         <v>36</v>
       </c>
       <c r="D320" s="13" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E320" s="16">
         <v>94794.81</v>
@@ -26741,7 +26803,7 @@
     </row>
     <row r="321" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A321" s="12" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B321" s="12" t="s">
         <v>28</v>
@@ -26750,7 +26812,7 @@
         <v>33</v>
       </c>
       <c r="D321" s="13" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E321" s="16">
         <v>50.36</v>
@@ -26812,12 +26874,12 @@
         <v>Link</v>
       </c>
       <c r="V321" s="38" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="322" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A322" s="12" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B322" s="12" t="s">
         <v>28</v>
@@ -26826,7 +26888,7 @@
         <v>36</v>
       </c>
       <c r="D322" s="13" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E322" s="16">
         <v>88.15</v>
@@ -26880,12 +26942,12 @@
         <v>Link</v>
       </c>
       <c r="V322" s="38" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="323" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A323" s="12" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B323" s="12" t="s">
         <v>28</v>
@@ -26956,12 +27018,12 @@
         <v>Link</v>
       </c>
       <c r="V323" s="38" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="324" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A324" s="12" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B324" s="12" t="s">
         <v>28</v>
@@ -27023,7 +27085,7 @@
     </row>
     <row r="325" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A325" s="12" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B325" s="12" t="s">
         <v>28</v>
@@ -27032,7 +27094,7 @@
         <v>36</v>
       </c>
       <c r="D325" s="13" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E325" s="16">
         <v>94.19</v>
@@ -27086,12 +27148,12 @@
         <v>Link</v>
       </c>
       <c r="V325" s="38" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="326" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A326" s="12" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B326" s="12" t="s">
         <v>28</v>
@@ -27100,7 +27162,7 @@
         <v>36</v>
       </c>
       <c r="D326" s="13" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E326" s="16">
         <v>95.51</v>
@@ -27154,12 +27216,12 @@
         <v>Link</v>
       </c>
       <c r="V326" s="38" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="327" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A327" s="12" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B327" s="12" t="s">
         <v>28</v>
@@ -27168,7 +27230,7 @@
         <v>33</v>
       </c>
       <c r="D327" s="13" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="E327" s="16">
         <v>1000</v>
@@ -27222,12 +27284,12 @@
         <v>Link</v>
       </c>
       <c r="V327" s="38" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="328" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A328" s="12" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B328" s="12" t="s">
         <v>28</v>
@@ -27303,7 +27365,7 @@
     </row>
     <row r="329" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A329" s="12" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B329" s="12" t="s">
         <v>28</v>
@@ -27364,12 +27426,12 @@
         <v>Link</v>
       </c>
       <c r="V329" s="38" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="330" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A330" s="12" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B330" s="12" t="s">
         <v>28</v>
@@ -27378,7 +27440,7 @@
         <v>54</v>
       </c>
       <c r="D330" s="13" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="E330" s="16">
         <v>3.03</v>
@@ -27441,7 +27503,7 @@
     </row>
     <row r="331" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A331" s="12" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B331" s="12" t="s">
         <v>28</v>
@@ -27450,7 +27512,7 @@
         <v>36</v>
       </c>
       <c r="D331" s="13" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E331" s="16">
         <v>98.47</v>
@@ -27509,7 +27571,7 @@
     </row>
     <row r="332" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A332" s="12" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B332" s="12" t="s">
         <v>28</v>
@@ -27580,12 +27642,12 @@
         <v>Link</v>
       </c>
       <c r="V332" s="38" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="333" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A333" s="12" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B333" s="12" t="s">
         <v>28</v>
@@ -27594,7 +27656,7 @@
         <v>54</v>
       </c>
       <c r="D333" s="13" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="E333" s="16">
         <v>1200</v>
@@ -27648,12 +27710,12 @@
         <v>Link</v>
       </c>
       <c r="V333" s="38" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="334" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A334" s="12" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B334" s="12" t="s">
         <v>28</v>
@@ -27716,12 +27778,12 @@
         <v>Link</v>
       </c>
       <c r="V334" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="335" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A335" s="12" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B335" s="12" t="s">
         <v>28</v>
@@ -27783,7 +27845,7 @@
     </row>
     <row r="336" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A336" s="12" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B336" s="12" t="s">
         <v>28</v>
@@ -27792,7 +27854,7 @@
         <v>36</v>
       </c>
       <c r="D336" s="13" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="E336" s="16">
         <v>86.44</v>
@@ -27846,12 +27908,12 @@
         <v>Link</v>
       </c>
       <c r="V336" s="38" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="337" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A337" s="12" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B337" s="12" t="s">
         <v>28</v>
@@ -27860,7 +27922,7 @@
         <v>54</v>
       </c>
       <c r="D337" s="13" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="E337" s="16">
         <v>54.1</v>
@@ -27922,12 +27984,12 @@
         <v>Link</v>
       </c>
       <c r="V337" s="38" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="338" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A338" s="12" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B338" s="12" t="s">
         <v>28</v>
@@ -27988,12 +28050,12 @@
         <v>Link</v>
       </c>
       <c r="V338" s="38" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="339" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A339" s="12" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B339" s="12" t="s">
         <v>28</v>
@@ -28002,7 +28064,7 @@
         <v>36</v>
       </c>
       <c r="D339" s="13" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="E339" s="16">
         <v>370</v>
@@ -28061,7 +28123,7 @@
     </row>
     <row r="340" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A340" s="12" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B340" s="12" t="s">
         <v>28</v>
@@ -28070,7 +28132,7 @@
         <v>54</v>
       </c>
       <c r="D340" s="13" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="E340" s="16">
         <v>71.52</v>
@@ -28132,12 +28194,12 @@
         <v>Link</v>
       </c>
       <c r="V340" s="38" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="341" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A341" s="12" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B341" s="12" t="s">
         <v>28</v>
@@ -28146,7 +28208,7 @@
         <v>36</v>
       </c>
       <c r="D341" s="13" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="E341" s="16">
         <v>73.239999999999995</v>
@@ -28200,12 +28262,12 @@
         <v>Link</v>
       </c>
       <c r="V341" s="38" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="342" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A342" s="12" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B342" s="12" t="s">
         <v>28</v>
@@ -28267,7 +28329,7 @@
     </row>
     <row r="343" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A343" s="12" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B343" s="12" t="s">
         <v>28</v>
@@ -28343,7 +28405,7 @@
     </row>
     <row r="344" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A344" s="12" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B344" s="12" t="s">
         <v>28</v>
@@ -28406,12 +28468,12 @@
         <v>Link</v>
       </c>
       <c r="V344" s="38" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="345" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A345" s="12" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B345" s="12" t="s">
         <v>28</v>
@@ -28482,12 +28544,12 @@
         <v>Link</v>
       </c>
       <c r="V345" s="38" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="346" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A346" s="12" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B346" s="12" t="s">
         <v>28</v>
@@ -28552,12 +28614,12 @@
         <v>Link</v>
       </c>
       <c r="V346" s="38" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="347" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A347" s="12" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B347" s="12" t="s">
         <v>28</v>
@@ -28618,12 +28680,12 @@
         <v>Link</v>
       </c>
       <c r="V347" s="38" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="348" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A348" s="12" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B348" s="12" t="s">
         <v>28</v>
@@ -28632,7 +28694,7 @@
         <v>36</v>
       </c>
       <c r="D348" s="13" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="E348" s="16">
         <v>86.86</v>
@@ -28686,12 +28748,12 @@
         <v>Link</v>
       </c>
       <c r="V348" s="38" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="349" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A349" s="12" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B349" s="12" t="s">
         <v>28</v>
@@ -28700,7 +28762,7 @@
         <v>153</v>
       </c>
       <c r="D349" s="13" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="E349" s="16">
         <v>1125</v>
@@ -28754,12 +28816,12 @@
         <v>Link</v>
       </c>
       <c r="V349" s="38" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="350" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A350" s="12" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B350" s="12" t="s">
         <v>28</v>
@@ -28822,12 +28884,12 @@
         <v>Link</v>
       </c>
       <c r="V350" s="38" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="351" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A351" s="12" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B351" s="12" t="s">
         <v>28</v>
@@ -28890,12 +28952,12 @@
         <v>Link</v>
       </c>
       <c r="V351" s="38" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="352" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A352" s="12" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B352" s="12" t="s">
         <v>28</v>
@@ -28966,12 +29028,12 @@
         <v>Link</v>
       </c>
       <c r="V352" s="38" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="353" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A353" s="12" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B353" s="12" t="s">
         <v>28</v>
@@ -29043,7 +29105,7 @@
     </row>
     <row r="354" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A354" s="12" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B354" s="12" t="s">
         <v>28</v>
@@ -29105,7 +29167,7 @@
     </row>
     <row r="355" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A355" s="12" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B355" s="12" t="s">
         <v>28</v>
@@ -29114,7 +29176,7 @@
         <v>36</v>
       </c>
       <c r="D355" s="13" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="E355" s="16">
         <v>91.1</v>
@@ -29168,12 +29230,12 @@
         <v>Link</v>
       </c>
       <c r="V355" s="38" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="356" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A356" s="12" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B356" s="12" t="s">
         <v>28</v>
@@ -29182,7 +29244,7 @@
         <v>42</v>
       </c>
       <c r="D356" s="13" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="E356" s="16">
         <v>37.880000000000003</v>
@@ -29244,12 +29306,12 @@
         <v>Link</v>
       </c>
       <c r="V356" s="38" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="357" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A357" s="12" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B357" s="12" t="s">
         <v>28</v>
@@ -29315,7 +29377,7 @@
     </row>
     <row r="358" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A358" s="12" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B358" s="12" t="s">
         <v>28</v>
@@ -29324,7 +29386,7 @@
         <v>54</v>
       </c>
       <c r="D358" s="13" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="E358" s="16">
         <v>68.88</v>
@@ -29386,12 +29448,12 @@
         <v>Link</v>
       </c>
       <c r="V358" s="38" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="359" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A359" s="12" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B359" s="12" t="s">
         <v>28</v>
@@ -29457,7 +29519,7 @@
     </row>
     <row r="360" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A360" s="12" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B360" s="12" t="s">
         <v>28</v>
@@ -29528,12 +29590,12 @@
         <v>Link</v>
       </c>
       <c r="V360" s="38" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="361" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A361" s="12" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B361" s="12" t="s">
         <v>28</v>
@@ -29604,12 +29666,12 @@
         <v>Link</v>
       </c>
       <c r="V361" s="38" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="362" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A362" s="12" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B362" s="12" t="s">
         <v>28</v>
@@ -29670,12 +29732,12 @@
         <v>Link</v>
       </c>
       <c r="V362" s="38" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="363" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A363" s="12" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B363" s="12" t="s">
         <v>28</v>
@@ -29684,7 +29746,7 @@
         <v>33</v>
       </c>
       <c r="D363" s="13" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="E363" s="16">
         <v>62.9</v>
@@ -29746,12 +29808,12 @@
         <v>Link</v>
       </c>
       <c r="V363" s="38" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="364" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A364" s="12" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B364" s="12" t="s">
         <v>28</v>
@@ -29823,7 +29885,7 @@
     </row>
     <row r="365" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A365" s="12" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B365" s="12" t="s">
         <v>28</v>
@@ -29889,7 +29951,7 @@
     </row>
     <row r="366" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A366" s="12" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B366" s="12" t="s">
         <v>28</v>
@@ -29960,12 +30022,12 @@
         <v>Link</v>
       </c>
       <c r="V366" s="38" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="367" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A367" s="12" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B367" s="12" t="s">
         <v>28</v>
@@ -29974,7 +30036,7 @@
         <v>54</v>
       </c>
       <c r="D367" s="13" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="E367" s="16">
         <v>100</v>
@@ -30037,7 +30099,7 @@
     </row>
     <row r="368" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A368" s="12" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B368" s="12" t="s">
         <v>28</v>
@@ -30108,12 +30170,12 @@
         <v>Link</v>
       </c>
       <c r="V368" s="38" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="369" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A369" s="12" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B369" s="12" t="s">
         <v>28</v>
@@ -30179,7 +30241,7 @@
     </row>
     <row r="370" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A370" s="12" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B370" s="12" t="s">
         <v>28</v>
@@ -30240,12 +30302,12 @@
         <v>Link</v>
       </c>
       <c r="V370" s="38" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="371" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A371" s="12" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B371" s="12" t="s">
         <v>28</v>
@@ -30311,7 +30373,7 @@
     </row>
     <row r="372" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A372" s="12" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B372" s="12" t="s">
         <v>28</v>
@@ -30320,7 +30382,7 @@
         <v>36</v>
       </c>
       <c r="D372" s="13" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="E372" s="16">
         <v>99.85</v>
@@ -30374,12 +30436,12 @@
         <v>Link</v>
       </c>
       <c r="V372" s="38" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="373" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A373" s="12" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B373" s="12" t="s">
         <v>28</v>
@@ -30441,7 +30503,7 @@
     </row>
     <row r="374" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A374" s="12" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B374" s="12" t="s">
         <v>28</v>
@@ -30450,7 +30512,7 @@
         <v>36</v>
       </c>
       <c r="D374" s="13" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="E374" s="16">
         <v>86.51</v>
@@ -30504,12 +30566,12 @@
         <v>Link</v>
       </c>
       <c r="V374" s="38" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="375" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A375" s="12" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B375" s="12" t="s">
         <v>28</v>
@@ -30579,7 +30641,7 @@
     </row>
     <row r="376" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A376" s="12" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B376" s="12" t="s">
         <v>28</v>
@@ -30588,7 +30650,7 @@
         <v>29</v>
       </c>
       <c r="D376" s="13" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E376" s="16">
         <v>0</v>
@@ -30647,7 +30709,7 @@
     </row>
     <row r="377" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A377" s="12" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B377" s="12" t="s">
         <v>28</v>
@@ -30713,7 +30775,7 @@
     </row>
     <row r="378" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A378" s="12" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B378" s="12" t="s">
         <v>28</v>
@@ -30784,12 +30846,12 @@
         <v>Link</v>
       </c>
       <c r="V378" s="38" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="379" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A379" s="12" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B379" s="12" t="s">
         <v>28</v>
@@ -30861,7 +30923,7 @@
     </row>
     <row r="380" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A380" s="12" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B380" s="12" t="s">
         <v>28</v>
@@ -30922,12 +30984,12 @@
         <v>Link</v>
       </c>
       <c r="V380" s="38" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="381" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A381" s="12" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B381" s="12" t="s">
         <v>28</v>
@@ -30988,12 +31050,12 @@
         <v>Link</v>
       </c>
       <c r="V381" s="38" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="382" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A382" s="12" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B382" s="12" t="s">
         <v>28</v>
@@ -31069,7 +31131,7 @@
     </row>
     <row r="383" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A383" s="12" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B383" s="12" t="s">
         <v>28</v>
@@ -31140,12 +31202,12 @@
         <v>Link</v>
       </c>
       <c r="V383" s="38" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="384" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A384" s="12" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B384" s="12" t="s">
         <v>28</v>
@@ -31211,7 +31273,7 @@
     </row>
     <row r="385" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A385" s="12" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B385" s="12" t="s">
         <v>28</v>
@@ -31279,7 +31341,7 @@
     </row>
     <row r="386" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A386" s="12" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B386" s="12" t="s">
         <v>28</v>
@@ -31345,7 +31407,7 @@
     </row>
     <row r="387" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A387" s="12" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B387" s="12" t="s">
         <v>28</v>
@@ -31407,7 +31469,7 @@
     </row>
     <row r="388" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A388" s="12" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B388" s="12" t="s">
         <v>28</v>
@@ -31416,7 +31478,7 @@
         <v>42</v>
       </c>
       <c r="D388" s="13" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="E388" s="16">
         <v>69.84</v>
@@ -31478,12 +31540,12 @@
         <v>Link</v>
       </c>
       <c r="V388" s="38" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="389" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A389" s="12" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B389" s="12" t="s">
         <v>28</v>
@@ -31551,7 +31613,7 @@
     </row>
     <row r="390" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A390" s="12" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B390" s="12" t="s">
         <v>28</v>
@@ -31560,7 +31622,7 @@
         <v>54</v>
       </c>
       <c r="D390" s="13" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="E390" s="16">
         <v>120</v>
@@ -31622,12 +31684,12 @@
         <v>Link</v>
       </c>
       <c r="V390" s="38" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="391" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A391" s="12" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B391" s="12" t="s">
         <v>28</v>
@@ -31694,12 +31756,12 @@
         <v>Link</v>
       </c>
       <c r="V391" s="38" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="392" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A392" s="12" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B392" s="12" t="s">
         <v>28</v>
@@ -31765,7 +31827,7 @@
     </row>
     <row r="393" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A393" s="12" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B393" s="12" t="s">
         <v>28</v>
@@ -31828,12 +31890,12 @@
         <v>Link</v>
       </c>
       <c r="V393" s="38" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="394" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A394" s="12" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B394" s="12" t="s">
         <v>28</v>
@@ -31903,7 +31965,7 @@
     </row>
     <row r="395" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A395" s="12" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B395" s="12" t="s">
         <v>28</v>
@@ -31975,7 +32037,7 @@
     </row>
     <row r="396" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A396" s="12" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B396" s="12" t="s">
         <v>28</v>
@@ -32046,12 +32108,12 @@
         <v>Link</v>
       </c>
       <c r="V396" s="38" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="397" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A397" s="12" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B397" s="12" t="s">
         <v>28</v>
@@ -32060,7 +32122,7 @@
         <v>54</v>
       </c>
       <c r="D397" s="13" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E397" s="16">
         <v>123.98</v>
@@ -32127,7 +32189,7 @@
     </row>
     <row r="398" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A398" s="12" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B398" s="12" t="s">
         <v>28</v>
@@ -32136,7 +32198,7 @@
         <v>54</v>
       </c>
       <c r="D398" s="13" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E398" s="16">
         <v>104.17</v>
@@ -32198,12 +32260,12 @@
         <v>Link</v>
       </c>
       <c r="V398" s="38" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="399" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A399" s="12" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B399" s="12" t="s">
         <v>28</v>
@@ -32268,12 +32330,12 @@
         <v>Link</v>
       </c>
       <c r="V399" s="38" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="400" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A400" s="12" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B400" s="12" t="s">
         <v>28</v>
@@ -32343,7 +32405,7 @@
     </row>
     <row r="401" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A401" s="12" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B401" s="12" t="s">
         <v>28</v>
@@ -32405,7 +32467,7 @@
     </row>
     <row r="402" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A402" s="12" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B402" s="12" t="s">
         <v>28</v>
@@ -32414,7 +32476,7 @@
         <v>33</v>
       </c>
       <c r="D402" s="13" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="E402" s="16">
         <v>98.47</v>
@@ -32468,12 +32530,12 @@
         <v>Link</v>
       </c>
       <c r="V402" s="38" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="403" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A403" s="12" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B403" s="12" t="s">
         <v>28</v>
@@ -32482,7 +32544,7 @@
         <v>36</v>
       </c>
       <c r="D403" s="13" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="E403" s="16">
         <v>90.13</v>
@@ -32536,12 +32598,12 @@
         <v>Link</v>
       </c>
       <c r="V403" s="38" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="404" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A404" s="12" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B404" s="12" t="s">
         <v>28</v>
@@ -32602,12 +32664,12 @@
         <v>Link</v>
       </c>
       <c r="V404" s="38" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="405" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A405" s="12" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B405" s="12" t="s">
         <v>28</v>
@@ -32616,7 +32678,7 @@
         <v>153</v>
       </c>
       <c r="D405" s="13" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="E405" s="16">
         <v>70.790000000000006</v>
@@ -32674,12 +32736,12 @@
         <v>Link</v>
       </c>
       <c r="V405" s="38" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="406" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A406" s="12" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B406" s="12" t="s">
         <v>28</v>
@@ -32745,7 +32807,7 @@
     </row>
     <row r="407" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A407" s="12" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B407" s="12" t="s">
         <v>28</v>
@@ -32821,7 +32883,7 @@
     </row>
     <row r="408" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A408" s="12" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B408" s="12" t="s">
         <v>28</v>
@@ -32830,7 +32892,7 @@
         <v>54</v>
       </c>
       <c r="D408" s="13" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="E408" s="16">
         <v>9.16</v>
@@ -32884,12 +32946,12 @@
         <v>Link</v>
       </c>
       <c r="V408" s="38" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="409" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A409" s="12" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B409" s="12" t="s">
         <v>28</v>
@@ -32898,7 +32960,7 @@
         <v>36</v>
       </c>
       <c r="D409" s="13" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="E409" s="16">
         <v>86.85</v>
@@ -32952,12 +33014,12 @@
         <v>Link</v>
       </c>
       <c r="V409" s="38" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="410" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A410" s="12" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B410" s="12" t="s">
         <v>28</v>
@@ -32966,7 +33028,7 @@
         <v>36</v>
       </c>
       <c r="D410" s="13" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="E410" s="16">
         <v>10.06</v>
@@ -33020,12 +33082,12 @@
         <v>Link</v>
       </c>
       <c r="V410" s="38" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="411" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A411" s="12" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B411" s="12" t="s">
         <v>28</v>
@@ -33091,7 +33153,7 @@
     </row>
     <row r="412" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A412" s="26" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B412" s="26" t="s">
         <v>28</v>
@@ -33100,7 +33162,7 @@
         <v>36</v>
       </c>
       <c r="D412" s="32" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="E412" s="33">
         <v>7.12</v>
@@ -33154,12 +33216,12 @@
         <v>Link</v>
       </c>
       <c r="V412" s="38" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="413" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A413" s="12" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B413" s="12" t="s">
         <v>28</v>
@@ -33168,7 +33230,7 @@
         <v>80</v>
       </c>
       <c r="D413" s="13" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="E413" s="16">
         <v>101.33</v>
@@ -33230,12 +33292,12 @@
         <v>Link</v>
       </c>
       <c r="V413" s="38" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="414" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A414" s="12" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B414" s="12" t="s">
         <v>28</v>
@@ -33244,7 +33306,7 @@
         <v>42</v>
       </c>
       <c r="D414" s="13" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="E414" s="16">
         <v>46.79</v>
@@ -33306,12 +33368,12 @@
         <v>Link</v>
       </c>
       <c r="V414" s="38" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="415" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A415" s="12" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B415" s="12" t="s">
         <v>28</v>
@@ -33320,7 +33382,7 @@
         <v>29</v>
       </c>
       <c r="D415" s="13" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="E415" s="16">
         <v>105.84</v>
@@ -33382,12 +33444,12 @@
         <v>Link</v>
       </c>
       <c r="V415" s="38" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="416" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A416" s="12" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B416" s="12" t="s">
         <v>28</v>
@@ -33396,7 +33458,7 @@
         <v>33</v>
       </c>
       <c r="D416" s="13" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="E416" s="16">
         <v>7.29</v>
@@ -33458,12 +33520,12 @@
         <v>Link</v>
       </c>
       <c r="V416" s="38" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="417" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A417" s="12" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B417" s="12" t="s">
         <v>28</v>
@@ -33529,7 +33591,7 @@
     </row>
     <row r="418" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A418" s="12" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B418" s="12" t="s">
         <v>28</v>
@@ -33595,7 +33657,7 @@
     </row>
     <row r="419" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A419" s="12" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B419" s="12" t="s">
         <v>28</v>
@@ -33604,7 +33666,7 @@
         <v>42</v>
       </c>
       <c r="D419" s="13" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="E419" s="16">
         <v>1141.1400000000001</v>
@@ -33663,7 +33725,7 @@
     </row>
     <row r="420" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A420" s="12" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B420" s="12" t="s">
         <v>28</v>
@@ -33672,7 +33734,7 @@
         <v>42</v>
       </c>
       <c r="D420" s="13" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="E420" s="16">
         <v>104.04</v>
@@ -33734,12 +33796,12 @@
         <v>Link</v>
       </c>
       <c r="V420" s="38" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="421" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A421" s="12" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B421" s="12" t="s">
         <v>28</v>
@@ -33802,12 +33864,12 @@
         <v>Link</v>
       </c>
       <c r="V421" s="38" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="422" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A422" s="12" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B422" s="12" t="s">
         <v>28</v>
@@ -33879,7 +33941,7 @@
     </row>
     <row r="423" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A423" s="12" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B423" s="12" t="s">
         <v>28</v>
@@ -33888,7 +33950,7 @@
         <v>36</v>
       </c>
       <c r="D423" s="13" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="E423" s="16">
         <v>90.2</v>
@@ -33942,12 +34004,12 @@
         <v>Link</v>
       </c>
       <c r="V423" s="38" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="424" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A424" s="12" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B424" s="12" t="s">
         <v>28</v>
@@ -34010,12 +34072,12 @@
         <v>Link</v>
       </c>
       <c r="V424" s="38" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="425" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A425" s="12" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B425" s="12" t="s">
         <v>28</v>
@@ -34086,12 +34148,12 @@
         <v>Link</v>
       </c>
       <c r="V425" s="38" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="426" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A426" s="12" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B426" s="12" t="s">
         <v>28</v>
@@ -34154,12 +34216,12 @@
         <v>Link</v>
       </c>
       <c r="V426" s="38" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="427" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A427" s="12" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B427" s="12" t="s">
         <v>28</v>
@@ -34230,12 +34292,12 @@
         <v>Link</v>
       </c>
       <c r="V427" s="38" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="428" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A428" s="12" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B428" s="12" t="s">
         <v>28</v>
@@ -34301,7 +34363,7 @@
     </row>
     <row r="429" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A429" s="12" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B429" s="12" t="s">
         <v>28</v>
@@ -34373,7 +34435,7 @@
     </row>
     <row r="430" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A430" s="12" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B430" s="12" t="s">
         <v>28</v>
@@ -34441,7 +34503,7 @@
     </row>
     <row r="431" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A431" s="12" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B431" s="12" t="s">
         <v>28</v>
@@ -34507,7 +34569,7 @@
     </row>
     <row r="432" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A432" s="12" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B432" s="12" t="s">
         <v>28</v>
@@ -34573,7 +34635,7 @@
     </row>
     <row r="433" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A433" s="12" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B433" s="12" t="s">
         <v>28</v>
@@ -34639,7 +34701,7 @@
     </row>
     <row r="434" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A434" s="12" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B434" s="12" t="s">
         <v>28</v>
@@ -34648,7 +34710,7 @@
         <v>54</v>
       </c>
       <c r="D434" s="13" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="E434" s="16">
         <v>101.5</v>
@@ -34710,12 +34772,12 @@
         <v>Link</v>
       </c>
       <c r="V434" s="38" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="435" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A435" s="12" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B435" s="12" t="s">
         <v>28</v>
@@ -34781,7 +34843,7 @@
     </row>
     <row r="436" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A436" s="12" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B436" s="12" t="s">
         <v>28</v>
@@ -34790,7 +34852,7 @@
         <v>54</v>
       </c>
       <c r="D436" s="13" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="E436" s="16">
         <v>8.89</v>
@@ -34844,12 +34906,12 @@
         <v>Link</v>
       </c>
       <c r="V436" s="38" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="437" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A437" s="12" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B437" s="12" t="s">
         <v>28</v>
@@ -34920,12 +34982,12 @@
         <v>Link</v>
       </c>
       <c r="V437" s="38" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="438" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A438" s="12" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B438" s="12" t="s">
         <v>28</v>
@@ -34991,7 +35053,7 @@
     </row>
     <row r="439" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A439" s="12" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B439" s="12" t="s">
         <v>28</v>
@@ -35000,7 +35062,7 @@
         <v>54</v>
       </c>
       <c r="D439" s="13" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E439" s="16">
         <v>38</v>
@@ -35062,12 +35124,12 @@
         <v>Link</v>
       </c>
       <c r="V439" s="38" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="440" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A440" s="12" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B440" s="12" t="s">
         <v>28</v>
@@ -35133,7 +35195,7 @@
     </row>
     <row r="441" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A441" s="12" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B441" s="12" t="s">
         <v>28</v>
@@ -35142,7 +35204,7 @@
         <v>36</v>
       </c>
       <c r="D441" s="13" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E441" s="16">
         <v>88.45</v>
@@ -35196,12 +35258,12 @@
         <v>Link</v>
       </c>
       <c r="V441" s="38" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="442" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A442" s="12" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B442" s="12" t="s">
         <v>28</v>
@@ -35210,7 +35272,7 @@
         <v>42</v>
       </c>
       <c r="D442" s="13" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E442" s="16">
         <v>14.85</v>
@@ -35272,12 +35334,12 @@
         <v>Link</v>
       </c>
       <c r="V442" s="38" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="443" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A443" s="12" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B443" s="12" t="s">
         <v>28</v>
@@ -35286,7 +35348,7 @@
         <v>410</v>
       </c>
       <c r="D443" s="13" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E443" s="16">
         <v>112</v>
@@ -35348,12 +35410,12 @@
         <v>Link</v>
       </c>
       <c r="V443" s="38" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="444" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A444" s="12" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B444" s="12" t="s">
         <v>28</v>
@@ -35418,12 +35480,12 @@
         <v>Link</v>
       </c>
       <c r="V444" s="38" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="445" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A445" s="12" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B445" s="12" t="s">
         <v>28</v>
@@ -35432,7 +35494,7 @@
         <v>33</v>
       </c>
       <c r="D445" s="13" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E445" s="16">
         <v>74</v>
@@ -35494,12 +35556,12 @@
         <v>Link</v>
       </c>
       <c r="V445" s="38" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="446" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A446" s="12" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B446" s="12" t="s">
         <v>28</v>
@@ -35508,7 +35570,7 @@
         <v>80</v>
       </c>
       <c r="D446" s="13" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E446" s="16">
         <v>98.75</v>
@@ -35570,12 +35632,12 @@
         <v>Link</v>
       </c>
       <c r="V446" s="38" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="447" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A447" s="12" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B447" s="12" t="s">
         <v>28</v>
@@ -35584,7 +35646,7 @@
         <v>29</v>
       </c>
       <c r="D447" s="13" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E447" s="16">
         <v>99.81</v>
@@ -35646,12 +35708,12 @@
         <v>Link</v>
       </c>
       <c r="V447" s="38" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="448" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A448" s="12" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B448" s="12" t="s">
         <v>28</v>
@@ -35660,7 +35722,7 @@
         <v>33</v>
       </c>
       <c r="D448" s="13" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E448" s="16">
         <v>34.159999999999997</v>
@@ -35722,12 +35784,12 @@
         <v>Link</v>
       </c>
       <c r="V448" s="38" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="449" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A449" s="12" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B449" s="12" t="s">
         <v>28</v>
@@ -35736,7 +35798,7 @@
         <v>36</v>
       </c>
       <c r="D449" s="13" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E449" s="16">
         <v>7.11</v>
@@ -35790,12 +35852,12 @@
         <v>Link</v>
       </c>
       <c r="V449" s="38" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="450" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A450" s="12" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B450" s="12" t="s">
         <v>28</v>
@@ -35860,12 +35922,12 @@
         <v>Link</v>
       </c>
       <c r="V450" s="38" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="451" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A451" s="12" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B451" s="12" t="s">
         <v>28</v>
@@ -35930,12 +35992,12 @@
         <v>Link</v>
       </c>
       <c r="V451" s="38" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="452" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A452" s="12" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B452" s="12" t="s">
         <v>28</v>
@@ -35996,15 +36058,15 @@
         <v>Link</v>
       </c>
       <c r="V452" s="38" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="453" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A453" s="12" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B453" s="12" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C453" s="13" t="s">
         <v>54</v>
@@ -36035,7 +36097,9 @@
       <c r="M453" s="13">
         <v>0</v>
       </c>
-      <c r="N453" s="13"/>
+      <c r="N453" s="13">
+        <v>727</v>
+      </c>
       <c r="O453" s="13"/>
       <c r="P453" s="13"/>
       <c r="Q453" s="30">
@@ -36060,15 +36124,15 @@
         <v>Link</v>
       </c>
       <c r="V453" s="38" t="s">
-        <v>50</v>
+        <v>893</v>
       </c>
     </row>
     <row r="454" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A454" s="12" t="s">
+        <v>894</v>
+      </c>
+      <c r="B454" s="12" t="s">
         <v>892</v>
-      </c>
-      <c r="B454" s="12" t="s">
-        <v>891</v>
       </c>
       <c r="C454" s="13" t="s">
         <v>36</v>
@@ -36099,7 +36163,9 @@
       <c r="M454" s="13">
         <v>0</v>
       </c>
-      <c r="N454" s="13"/>
+      <c r="N454" s="13">
+        <v>6437</v>
+      </c>
       <c r="O454" s="13"/>
       <c r="P454" s="13"/>
       <c r="Q454" s="30">
@@ -36124,15 +36190,15 @@
         <v>Link</v>
       </c>
       <c r="V454" s="38" t="s">
-        <v>50</v>
+        <v>895</v>
       </c>
     </row>
     <row r="455" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A455" s="12" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="B455" s="12" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C455" s="13" t="s">
         <v>49</v>
@@ -36193,10 +36259,10 @@
     </row>
     <row r="456" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A456" s="12" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="B456" s="12" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C456" s="13" t="s">
         <v>36</v>
@@ -36227,7 +36293,9 @@
       <c r="M456" s="13">
         <v>0</v>
       </c>
-      <c r="N456" s="13"/>
+      <c r="N456" s="13">
+        <v>10391</v>
+      </c>
       <c r="O456" s="13"/>
       <c r="P456" s="13"/>
       <c r="Q456" s="30">
@@ -36252,15 +36320,15 @@
         <v>Link</v>
       </c>
       <c r="V456" s="38" t="s">
-        <v>50</v>
+        <v>898</v>
       </c>
     </row>
     <row r="457" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A457" s="12" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="B457" s="12" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C457" s="13" t="s">
         <v>36</v>
@@ -36291,7 +36359,9 @@
       <c r="M457" s="13">
         <v>0</v>
       </c>
-      <c r="N457" s="13"/>
+      <c r="N457" s="13">
+        <v>9203</v>
+      </c>
       <c r="O457" s="13"/>
       <c r="P457" s="13"/>
       <c r="Q457" s="30">
@@ -36316,15 +36386,15 @@
         <v>Link</v>
       </c>
       <c r="V457" s="38" t="s">
-        <v>50</v>
+        <v>900</v>
       </c>
     </row>
     <row r="458" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A458" s="12" t="s">
-        <v>896</v>
+        <v>901</v>
       </c>
       <c r="B458" s="12" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C458" s="13" t="s">
         <v>36</v>
@@ -36355,7 +36425,9 @@
       <c r="M458" s="13">
         <v>0</v>
       </c>
-      <c r="N458" s="13"/>
+      <c r="N458" s="13">
+        <v>1755</v>
+      </c>
       <c r="O458" s="13"/>
       <c r="P458" s="13"/>
       <c r="Q458" s="30">
@@ -36380,15 +36452,15 @@
         <v>Link</v>
       </c>
       <c r="V458" s="38" t="s">
-        <v>50</v>
+        <v>902</v>
       </c>
     </row>
     <row r="459" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A459" s="12" t="s">
-        <v>897</v>
+        <v>903</v>
       </c>
       <c r="B459" s="12" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C459" s="13" t="s">
         <v>49</v>
@@ -36449,10 +36521,10 @@
     </row>
     <row r="460" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A460" s="12" t="s">
-        <v>898</v>
+        <v>904</v>
       </c>
       <c r="B460" s="12" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C460" s="13" t="s">
         <v>54</v>
@@ -36483,7 +36555,9 @@
       <c r="M460" s="13">
         <v>0</v>
       </c>
-      <c r="N460" s="13"/>
+      <c r="N460" s="13">
+        <v>17032</v>
+      </c>
       <c r="O460" s="13"/>
       <c r="P460" s="13"/>
       <c r="Q460" s="30">
@@ -36508,15 +36582,15 @@
         <v>Link</v>
       </c>
       <c r="V460" s="38" t="s">
-        <v>50</v>
+        <v>905</v>
       </c>
     </row>
     <row r="461" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A461" s="12" t="s">
-        <v>899</v>
+        <v>906</v>
       </c>
       <c r="B461" s="12" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C461" s="13" t="s">
         <v>33</v>
@@ -36547,7 +36621,9 @@
       <c r="M461" s="13">
         <v>0</v>
       </c>
-      <c r="N461" s="13"/>
+      <c r="N461" s="13">
+        <v>43</v>
+      </c>
       <c r="O461" s="13"/>
       <c r="P461" s="13"/>
       <c r="Q461" s="30" t="str">
@@ -36577,10 +36653,10 @@
     </row>
     <row r="462" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A462" s="12" t="s">
-        <v>900</v>
+        <v>907</v>
       </c>
       <c r="B462" s="12" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C462" s="13" t="s">
         <v>36</v>
@@ -36611,7 +36687,9 @@
       <c r="M462" s="13">
         <v>0</v>
       </c>
-      <c r="N462" s="13"/>
+      <c r="N462" s="13">
+        <v>5302</v>
+      </c>
       <c r="O462" s="13"/>
       <c r="P462" s="13"/>
       <c r="Q462" s="30">
@@ -36636,15 +36714,15 @@
         <v>Link</v>
       </c>
       <c r="V462" s="38" t="s">
-        <v>50</v>
+        <v>908</v>
       </c>
     </row>
     <row r="463" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A463" s="12" t="s">
-        <v>901</v>
+        <v>909</v>
       </c>
       <c r="B463" s="12" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C463" s="13" t="s">
         <v>33</v>
@@ -36675,7 +36753,9 @@
       <c r="M463" s="13">
         <v>0</v>
       </c>
-      <c r="N463" s="13"/>
+      <c r="N463" s="13">
+        <v>74</v>
+      </c>
       <c r="O463" s="13"/>
       <c r="P463" s="13"/>
       <c r="Q463" s="30">
@@ -36705,10 +36785,10 @@
     </row>
     <row r="464" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A464" s="12" t="s">
-        <v>902</v>
+        <v>910</v>
       </c>
       <c r="B464" s="12" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C464" s="13" t="s">
         <v>54</v>
@@ -36739,7 +36819,9 @@
       <c r="M464" s="13">
         <v>0</v>
       </c>
-      <c r="N464" s="13"/>
+      <c r="N464" s="13">
+        <v>3425</v>
+      </c>
       <c r="O464" s="13"/>
       <c r="P464" s="13"/>
       <c r="Q464" s="30">
@@ -36764,15 +36846,15 @@
         <v>Link</v>
       </c>
       <c r="V464" s="38" t="s">
-        <v>50</v>
+        <v>911</v>
       </c>
     </row>
     <row r="465" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A465" s="12" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="B465" s="12" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C465" s="13" t="s">
         <v>36</v>
@@ -36803,7 +36885,9 @@
       <c r="M465" s="13">
         <v>0</v>
       </c>
-      <c r="N465" s="13"/>
+      <c r="N465" s="13">
+        <v>13866</v>
+      </c>
       <c r="O465" s="13"/>
       <c r="P465" s="13"/>
       <c r="Q465" s="30">
@@ -36828,15 +36912,15 @@
         <v>Link</v>
       </c>
       <c r="V465" s="38" t="s">
-        <v>50</v>
+        <v>913</v>
       </c>
     </row>
     <row r="466" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A466" s="12" t="s">
-        <v>904</v>
+        <v>914</v>
       </c>
       <c r="B466" s="12" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C466" s="13" t="s">
         <v>36</v>
@@ -36867,7 +36951,9 @@
       <c r="M466" s="13">
         <v>0</v>
       </c>
-      <c r="N466" s="13"/>
+      <c r="N466" s="13">
+        <v>204</v>
+      </c>
       <c r="O466" s="13"/>
       <c r="P466" s="13"/>
       <c r="Q466" s="30">
@@ -36892,15 +36978,15 @@
         <v>Link</v>
       </c>
       <c r="V466" s="38" t="s">
-        <v>50</v>
+        <v>915</v>
       </c>
     </row>
     <row r="467" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A467" s="12" t="s">
-        <v>905</v>
+        <v>916</v>
       </c>
       <c r="B467" s="12" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C467" s="13" t="s">
         <v>49</v>
@@ -36961,10 +37047,10 @@
     </row>
     <row r="468" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A468" s="12" t="s">
-        <v>906</v>
+        <v>917</v>
       </c>
       <c r="B468" s="12" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C468" s="13" t="s">
         <v>36</v>
@@ -36995,7 +37081,9 @@
       <c r="M468" s="13">
         <v>0</v>
       </c>
-      <c r="N468" s="13"/>
+      <c r="N468" s="13">
+        <v>1740</v>
+      </c>
       <c r="O468" s="13"/>
       <c r="P468" s="13"/>
       <c r="Q468" s="30">
@@ -37020,15 +37108,15 @@
         <v>Link</v>
       </c>
       <c r="V468" s="38" t="s">
-        <v>50</v>
+        <v>918</v>
       </c>
     </row>
     <row r="469" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A469" s="12" t="s">
-        <v>907</v>
+        <v>919</v>
       </c>
       <c r="B469" s="12" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C469" s="13" t="s">
         <v>54</v>
@@ -37059,7 +37147,9 @@
       <c r="M469" s="13">
         <v>0</v>
       </c>
-      <c r="N469" s="13"/>
+      <c r="N469" s="13">
+        <v>1578</v>
+      </c>
       <c r="O469" s="13"/>
       <c r="P469" s="13"/>
       <c r="Q469" s="30">
@@ -37084,15 +37174,15 @@
         <v>Link</v>
       </c>
       <c r="V469" s="38" t="s">
-        <v>50</v>
+        <v>920</v>
       </c>
     </row>
     <row r="470" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A470" s="12" t="s">
-        <v>908</v>
+        <v>921</v>
       </c>
       <c r="B470" s="12" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C470" s="13" t="s">
         <v>36</v>
@@ -37123,7 +37213,9 @@
       <c r="M470" s="13">
         <v>0</v>
       </c>
-      <c r="N470" s="13"/>
+      <c r="N470" s="13">
+        <v>1491</v>
+      </c>
       <c r="O470" s="13"/>
       <c r="P470" s="13"/>
       <c r="Q470" s="30">
@@ -37148,15 +37240,15 @@
         <v>Link</v>
       </c>
       <c r="V470" s="38" t="s">
-        <v>50</v>
+        <v>922</v>
       </c>
     </row>
     <row r="471" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A471" s="12" t="s">
-        <v>909</v>
+        <v>923</v>
       </c>
       <c r="B471" s="12" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C471" s="13" t="s">
         <v>36</v>
@@ -37187,7 +37279,9 @@
       <c r="M471" s="13">
         <v>0</v>
       </c>
-      <c r="N471" s="13"/>
+      <c r="N471" s="13">
+        <v>10399</v>
+      </c>
       <c r="O471" s="13"/>
       <c r="P471" s="13"/>
       <c r="Q471" s="30">
@@ -37212,15 +37306,15 @@
         <v>Link</v>
       </c>
       <c r="V471" s="38" t="s">
-        <v>50</v>
+        <v>924</v>
       </c>
     </row>
     <row r="472" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A472" s="12" t="s">
-        <v>910</v>
+        <v>925</v>
       </c>
       <c r="B472" s="12" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C472" s="13" t="s">
         <v>36</v>
@@ -37251,7 +37345,9 @@
       <c r="M472" s="13">
         <v>0</v>
       </c>
-      <c r="N472" s="13"/>
+      <c r="N472" s="13">
+        <v>32984</v>
+      </c>
       <c r="O472" s="13"/>
       <c r="P472" s="13"/>
       <c r="Q472" s="30">
@@ -37276,15 +37372,15 @@
         <v>Link</v>
       </c>
       <c r="V472" s="38" t="s">
-        <v>50</v>
+        <v>926</v>
       </c>
     </row>
     <row r="473" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A473" s="12" t="s">
-        <v>911</v>
+        <v>927</v>
       </c>
       <c r="B473" s="12" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C473" s="13" t="s">
         <v>54</v>
@@ -37315,9 +37411,15 @@
       <c r="M473" s="13">
         <v>0</v>
       </c>
-      <c r="N473" s="13"/>
-      <c r="O473" s="13"/>
-      <c r="P473" s="13"/>
+      <c r="N473" s="13">
+        <v>23197</v>
+      </c>
+      <c r="O473" s="13">
+        <v>65</v>
+      </c>
+      <c r="P473" s="13">
+        <v>1</v>
+      </c>
       <c r="Q473" s="30">
         <f>Tabela1[[#This Row],[Divid.]]</f>
         <v>1.2</v>
@@ -37340,15 +37442,15 @@
         <v>Link</v>
       </c>
       <c r="V473" s="38" t="s">
-        <v>50</v>
+        <v>928</v>
       </c>
     </row>
     <row r="474" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A474" s="12" t="s">
-        <v>912</v>
+        <v>929</v>
       </c>
       <c r="B474" s="12" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C474" s="13" t="s">
         <v>36</v>
@@ -37379,7 +37481,9 @@
       <c r="M474" s="13">
         <v>0</v>
       </c>
-      <c r="N474" s="13"/>
+      <c r="N474" s="13">
+        <v>1980</v>
+      </c>
       <c r="O474" s="13"/>
       <c r="P474" s="13"/>
       <c r="Q474" s="30">
@@ -37404,15 +37508,15 @@
         <v>Link</v>
       </c>
       <c r="V474" s="38" t="s">
-        <v>50</v>
+        <v>930</v>
       </c>
     </row>
     <row r="475" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A475" s="12" t="s">
-        <v>913</v>
+        <v>931</v>
       </c>
       <c r="B475" s="12" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C475" s="13" t="s">
         <v>36</v>
@@ -37443,7 +37547,9 @@
       <c r="M475" s="13">
         <v>0</v>
       </c>
-      <c r="N475" s="13"/>
+      <c r="N475" s="13">
+        <v>36427</v>
+      </c>
       <c r="O475" s="13"/>
       <c r="P475" s="13"/>
       <c r="Q475" s="30">
@@ -37468,15 +37574,15 @@
         <v>Link</v>
       </c>
       <c r="V475" s="38" t="s">
-        <v>50</v>
+        <v>932</v>
       </c>
     </row>
     <row r="476" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A476" s="12" t="s">
-        <v>914</v>
+        <v>933</v>
       </c>
       <c r="B476" s="12" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C476" s="13" t="s">
         <v>36</v>
@@ -37507,7 +37613,9 @@
       <c r="M476" s="13">
         <v>0</v>
       </c>
-      <c r="N476" s="13"/>
+      <c r="N476" s="13">
+        <v>25098</v>
+      </c>
       <c r="O476" s="13"/>
       <c r="P476" s="13"/>
       <c r="Q476" s="30">
@@ -37532,7 +37640,7 @@
         <v>Link</v>
       </c>
       <c r="V476" s="38" t="s">
-        <v>50</v>
+        <v>934</v>
       </c>
     </row>
   </sheetData>
@@ -37582,62 +37690,62 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>915</v>
+        <v>935</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>916</v>
+        <v>936</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>917</v>
+        <v>937</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>918</v>
+        <v>938</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>919</v>
+        <v>939</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>920</v>
+        <v>940</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>921</v>
+        <v>941</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>922</v>
+        <v>942</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>923</v>
+        <v>943</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
-        <v>924</v>
+        <v>944</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>925</v>
+        <v>945</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
-        <v>926</v>
+        <v>946</v>
       </c>
     </row>
   </sheetData>
